--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44107,6 +44107,41 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44142,6 +44142,43 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44179,6 +44179,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44216,6 +44216,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44251,6 +44251,41 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>18100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44286,6 +44286,41 @@
         <v>18100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44321,6 +44321,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44358,6 +44358,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44393,6 +44393,43 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44430,6 +44430,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44465,6 +44465,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44500,6 +44500,78 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44572,6 +44572,78 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44644,6 +44644,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44681,6 +44681,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44718,6 +44718,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44755,6 +44755,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44790,6 +44790,78 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44862,6 +44862,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44899,6 +44899,43 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72901,6 +72901,41 @@
         </is>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72936,6 +72936,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2041" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72973,6 +72973,43 @@
         </is>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2042" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73010,6 +73010,43 @@
         </is>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2043" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2043"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73047,6 +73047,43 @@
         </is>
       </c>
     </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2044" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73084,6 +73084,43 @@
         </is>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2045" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73121,6 +73121,43 @@
         </is>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2046" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73158,6 +73158,43 @@
         </is>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2047" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2047"/>
+  <dimension ref="A1:I2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73195,6 +73195,43 @@
         </is>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2048" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73232,6 +73232,43 @@
         </is>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2049" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73269,6 +73269,43 @@
         </is>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2050" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73306,6 +73306,43 @@
         </is>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2051" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2051"/>
+  <dimension ref="A1:I2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73343,6 +73343,43 @@
         </is>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2052" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2052"/>
+  <dimension ref="A1:I2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73380,6 +73380,43 @@
         </is>
       </c>
     </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2053" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2053"/>
+  <dimension ref="A1:I2054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73417,6 +73417,43 @@
         </is>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2054" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2054"/>
+  <dimension ref="A1:I2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73454,6 +73454,43 @@
         </is>
       </c>
     </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2055" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73491,6 +73491,43 @@
         </is>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2056" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73528,6 +73528,43 @@
         </is>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2057" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73565,6 +73565,43 @@
         </is>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2058" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73602,6 +73602,43 @@
         </is>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2059" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73639,6 +73639,43 @@
         </is>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2060" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2060"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73676,6 +73676,43 @@
         </is>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2061" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73713,6 +73713,43 @@
         </is>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2062" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73750,6 +73750,43 @@
         </is>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2063" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73787,6 +73787,43 @@
         </is>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2064" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2064"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73824,6 +73824,76 @@
         </is>
       </c>
     </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>64800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2066"/>
+  <dimension ref="A1:I2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73894,6 +73894,41 @@
         <v>64800</v>
       </c>
     </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2067" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73929,6 +73929,113 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2069" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74036,6 +74036,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2071"/>
+  <dimension ref="A1:I2072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74071,6 +74071,41 @@
         <v>4300</v>
       </c>
     </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I2072" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5167.xlsx
+++ b/data/5167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74106,6 +74106,115 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2074" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>TURBO</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2075" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
